--- a/Tools/Luban/Editor_Luban/Json2BinTemplate/Datas/__tables__.xlsx
+++ b/Tools/Luban/Editor_Luban/Json2BinTemplate/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -106,22 +106,82 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Datas.TbBuffCfg</t>
-  </si>
-  <si>
-    <t>BuffCfg</t>
-  </si>
-  <si>
-    <t>buffcfgs</t>
-  </si>
-  <si>
-    <t>Datas.TbSkillCfg</t>
+    <t>Datas.TbItemEffectCfg</t>
+  </si>
+  <si>
+    <t>ItemEffectCfg</t>
+  </si>
+  <si>
+    <t>ItemData\itemEffectCfg.xlsx</t>
+  </si>
+  <si>
+    <t>Datas.TbItemCfg</t>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+  </si>
+  <si>
+    <t>ItemData\itemcfg.xlsx</t>
+  </si>
+  <si>
+    <t>UnitInfoCfg</t>
+  </si>
+  <si>
+    <t>EditorJsonData\UnitCfg</t>
   </si>
   <si>
     <t>SkillCfg</t>
   </si>
   <si>
-    <t>datas</t>
+    <t>EditorJsonData\SkillCfg</t>
+  </si>
+  <si>
+    <t>NormalBuffCfg</t>
+  </si>
+  <si>
+    <t>DamageBuffCfg_DynamicGroup</t>
+  </si>
+  <si>
+    <t>DamageBuffCfg_StaticGroup</t>
+  </si>
+  <si>
+    <t>ArthurMarkBuffCfg</t>
+  </si>
+  <si>
+    <t>CommonModifySkillBuffCfg</t>
+  </si>
+  <si>
+    <t>ExecuteDamageBuffCfg</t>
+  </si>
+  <si>
+    <t>HPCureBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiMixedMultiScatterBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiMultipleArrowBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiMultipleSkillModifyBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiPasvAttackSpeedBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiScatterArrowBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiScatterSkillModifyBuffCfg</t>
+  </si>
+  <si>
+    <t>MoveSpeedBuffCfg</t>
+  </si>
+  <si>
+    <t>StunBuffCfg_DynamicTime</t>
+  </si>
+  <si>
+    <t>TargetFlashMoveBuffCfg</t>
   </si>
 </sst>
 </file>
@@ -129,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +211,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -159,15 +265,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,53 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,9 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,37 +341,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,25 +362,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,67 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,79 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,15 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,13 +580,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,17 +652,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,156 +667,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,18 +1141,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="56.25" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
@@ -1193,7 +1256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" s="2" customFormat="1" spans="2:5">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1201,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" s="2" customFormat="1" spans="2:5">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1215,10 +1278,296 @@
         <v>34</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="str">
+        <f>"Datas.Tb"&amp;C6</f>
+        <v>Datas.TbUnitInfoCfg</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="str">
+        <f>"Datas.Tb"&amp;C7</f>
+        <v>Datas.TbSkillCfg</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="str">
+        <f>"Datas.Tb"&amp;C8</f>
+        <v>Datas.TbNormalBuffCfg</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"EditorJsonData\BuffCfg\"&amp;C8</f>
+        <v>EditorJsonData\BuffCfg\NormalBuffCfg</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="str">
+        <f t="shared" ref="B9:B23" si="0">"Datas.Tb"&amp;C9</f>
+        <v>Datas.TbDamageBuffCfg_DynamicGroup</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"EditorJsonData\BuffCfg\"&amp;C9</f>
+        <v>EditorJsonData\BuffCfg\DamageBuffCfg_DynamicGroup</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbDamageBuffCfg_StaticGroup</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E23" si="1">"EditorJsonData\BuffCfg\"&amp;C10</f>
+        <v>EditorJsonData\BuffCfg\DamageBuffCfg_StaticGroup</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbArthurMarkBuffCfg</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\ArthurMarkBuffCfg</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbCommonModifySkillBuffCfg</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\CommonModifySkillBuffCfg</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbExecuteDamageBuffCfg</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\ExecuteDamageBuffCfg</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHPCureBuffCfg</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HPCureBuffCfg</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiMixedMultiScatterBuffCfg</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiMixedMultiScatterBuffCfg</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiMultipleArrowBuffCfg</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiMultipleArrowBuffCfg</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiMultipleSkillModifyBuffCfg</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiMultipleSkillModifyBuffCfg</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiPasvAttackSpeedBuffCfg</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiPasvAttackSpeedBuffCfg</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiScatterArrowBuffCfg</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiScatterArrowBuffCfg</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbHouyiScatterSkillModifyBuffCfg</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\HouyiScatterSkillModifyBuffCfg</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbMoveSpeedBuffCfg</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\MoveSpeedBuffCfg</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbStunBuffCfg_DynamicTime</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\StunBuffCfg_DynamicTime</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Datas.TbTargetFlashMoveBuffCfg</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>EditorJsonData\BuffCfg\TargetFlashMoveBuffCfg</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Json2BinTemplate/Datas/__tables__.xlsx
+++ b/Tools/Luban/Editor_Luban/Json2BinTemplate/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>TargetFlashMoveBuffCfg</t>
+  </si>
+  <si>
+    <t>JinxRocketMixedBuffCfg_DynamicGroup</t>
+  </si>
+  <si>
+    <t>NSSpeedBuffCfg</t>
   </si>
 </sst>
 </file>
@@ -189,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,7 +217,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +284,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -233,36 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -270,82 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,49 +368,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,127 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +571,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,21 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +634,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,182 +668,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1570,6 +1576,38 @@
         <v>EditorJsonData\BuffCfg\TargetFlashMoveBuffCfg</v>
       </c>
     </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="str">
+        <f>"Datas.Tb"&amp;C24</f>
+        <v>Datas.TbJinxRocketMixedBuffCfg_DynamicGroup</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"EditorJsonData\BuffCfg\"&amp;C24</f>
+        <v>EditorJsonData\BuffCfg\JinxRocketMixedBuffCfg_DynamicGroup</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="str">
+        <f>"Datas.Tb"&amp;C25</f>
+        <v>Datas.TbNSSpeedBuffCfg</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f>"EditorJsonData\BuffCfg\"&amp;C25</f>
+        <v>EditorJsonData\BuffCfg\NSSpeedBuffCfg</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
